--- a/Excel/WeaponResources.xlsx
+++ b/Excel/WeaponResources.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -27,6 +27,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>weaponMesh</t>
+  </si>
+  <si>
     <t>hitRoleEffect</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>资产ID</t>
+  </si>
+  <si>
+    <t>武器模型</t>
   </si>
   <si>
     <t>命中角色特效</t>
@@ -106,7 +112,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,34 +586,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,121 +608,143 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -765,7 +798,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -775,9 +808,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -809,15 +842,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,132 +920,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1023,189 +1091,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="1" max="2" width="11.0083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.0083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.575" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.575" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.4333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.575" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.4333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.43333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7166666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.8583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+    <row r="4" ht="18.75" customHeight="1"/>
+    <row r="5" ht="18.75" customHeight="1" spans="1:13">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="4">
+        <v>43704</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="4">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="I4">
+      <c r="J5" s="4">
         <v>7</v>
       </c>
-      <c r="J4">
+      <c r="K5" s="4">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="L5" s="4">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="M5" s="4">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,14 +1300,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1232,7 +1318,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>